--- a/biology/Botanique/Ascocoryne_sarcoides/Ascocoryne_sarcoides.xlsx
+++ b/biology/Botanique/Ascocoryne_sarcoides/Ascocoryne_sarcoides.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ascocoryne sarcoides
 L'Ascocoryne sarcoïde (Ascocoryne sarcoides) est une espèce de champignons ascomycètes de la famille des Helotiaceae.
@@ -512,7 +524,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un champignon saprophyte lignicole existant sous les formes sexuée et asexuée.
 </t>
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le corps fructifère de l’Ascocoryne sarcoïde est de couleur rouge violet (0,1 à 1,5 cm), il se développe à l’état jeune, en une sorte de petit tubercule irrégulièrement lobé regroupant plusieurs individus et ayant l’apparence d’une petite cervelle, sessile ou sur un court pédoncule. Ensuite il grandit (1,5 à 3 cm) et prend la forme d’un petit cône inversé qui s’aplanit et se transforme en coupelle irrégulière et lobée à la marge. Sa chair est gélatineuse et n’a pas d’odeur particulière. Il pousse principalement sur les souches et branches pourrissantes de feuillus (particulièrement des hêtres), de l’automne jusqu’au milieu de l’hiver.
 </t>
@@ -574,7 +590,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce champignon n’est pas comestible.
 </t>
